--- a/cali_par.xlsx
+++ b/cali_par.xlsx
@@ -257,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +280,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -301,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,7 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +657,7 @@
       <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -691,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="9">
-        <v>11.136062406015554</v>
+        <v>11.136062406015601</v>
       </c>
       <c r="M2" s="9">
-        <v>3.9151113059587583</v>
+        <v>3.9151113059587601</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
@@ -1361,31 +1381,31 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="17">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J18" t="s">
@@ -1625,31 +1645,31 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="17">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="17">
         <v>1.4E-3</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="17">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J24" t="s">
@@ -1659,41 +1679,41 @@
         <v>4</v>
       </c>
       <c r="L24" s="9">
-        <v>3.514281</v>
+        <v>2.0052370000000002</v>
       </c>
       <c r="M24" s="9">
-        <v>0.76328980000000002</v>
+        <v>4.6035729999999999</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="17">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="17">
         <v>1.4E-3</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="17">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J25" t="s">
@@ -1882,10 +1902,10 @@
         <v>2</v>
       </c>
       <c r="L29" s="9">
-        <v>0.46588235294117647</v>
+        <v>197.49</v>
       </c>
       <c r="M29" s="9">
-        <v>2.4197033661620071E-2</v>
+        <v>226.4</v>
       </c>
       <c r="N29" t="s">
         <v>75</v>
